--- a/program/Lab/auto_video/wordList.xlsx
+++ b/program/Lab/auto_video/wordList.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
-  <si>
-    <t xml:space="preserve">ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
+  <si>
+    <t xml:space="preserve">id</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">spelling-1</t>
   </si>
   <si>
-    <t xml:space="preserve">spelling-2 </t>
+    <t xml:space="preserve">spelling-2</t>
   </si>
   <si>
     <t xml:space="preserve">jp</t>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">detail</t>
   </si>
   <si>
+    <t xml:space="preserve">0001</t>
+  </si>
+  <si>
     <t xml:space="preserve">問候</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t xml:space="preserve">Goodmorning</t>
   </si>
   <si>
+    <t xml:space="preserve">0002</t>
+  </si>
+  <si>
     <t xml:space="preserve">食物</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t xml:space="preserve">夜食夜111食夜食</t>
   </si>
   <si>
+    <t xml:space="preserve">0003</t>
+  </si>
+  <si>
     <t xml:space="preserve">購物</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t xml:space="preserve">Departmentstore</t>
   </si>
   <si>
+    <t xml:space="preserve">0004</t>
+  </si>
+  <si>
     <t xml:space="preserve">社群</t>
   </si>
   <si>
@@ -109,6 +121,9 @@
     <t xml:space="preserve">Gathering</t>
   </si>
   <si>
+    <t xml:space="preserve">0005</t>
+  </si>
+  <si>
     <t xml:space="preserve">娛樂</t>
   </si>
   <si>
@@ -124,6 +139,9 @@
     <t xml:space="preserve">Cinema</t>
   </si>
   <si>
+    <t xml:space="preserve">0006</t>
+  </si>
+  <si>
     <t xml:space="preserve">旅遊</t>
   </si>
   <si>
@@ -139,6 +157,9 @@
     <t xml:space="preserve">Nightmarket</t>
   </si>
   <si>
+    <t xml:space="preserve">0007</t>
+  </si>
+  <si>
     <t xml:space="preserve">交通</t>
   </si>
   <si>
@@ -154,6 +175,9 @@
     <t xml:space="preserve">MRT(MassRapidTransit)</t>
   </si>
   <si>
+    <t xml:space="preserve">0008</t>
+  </si>
+  <si>
     <t xml:space="preserve">教育</t>
   </si>
   <si>
@@ -169,6 +193,9 @@
     <t xml:space="preserve">University</t>
   </si>
   <si>
+    <t xml:space="preserve">0009</t>
+  </si>
+  <si>
     <t xml:space="preserve">體育</t>
   </si>
   <si>
@@ -184,6 +211,9 @@
     <t xml:space="preserve">Baseball</t>
   </si>
   <si>
+    <t xml:space="preserve">0010</t>
+  </si>
+  <si>
     <t xml:space="preserve">醫療</t>
   </si>
   <si>
@@ -199,6 +229,9 @@
     <t xml:space="preserve">Pharmacy</t>
   </si>
   <si>
+    <t xml:space="preserve">0011</t>
+  </si>
+  <si>
     <t xml:space="preserve">蘋果</t>
   </si>
   <si>
@@ -211,6 +244,9 @@
     <t xml:space="preserve">apple</t>
   </si>
   <si>
+    <t xml:space="preserve">0012</t>
+  </si>
+  <si>
     <t xml:space="preserve">香蕉</t>
   </si>
   <si>
@@ -220,7 +256,10 @@
     <t xml:space="preserve">banana</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
+    <t xml:space="preserve">0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">職場</t>
   </si>
   <si>
     <t xml:space="preserve">上班</t>
@@ -232,43 +271,61 @@
     <t xml:space="preserve">出勤、会社に行く</t>
   </si>
   <si>
+    <t xml:space="preserve">0014</t>
+  </si>
+  <si>
     <t xml:space="preserve">下班 </t>
   </si>
   <si>
     <t xml:space="preserve">退勤する、仕事が終わる </t>
   </si>
   <si>
+    <t xml:space="preserve">0015</t>
+  </si>
+  <si>
     <t xml:space="preserve">加班 </t>
   </si>
   <si>
     <t xml:space="preserve">残業 </t>
   </si>
   <si>
+    <t xml:space="preserve">0016</t>
+  </si>
+  <si>
     <t xml:space="preserve">薪水</t>
   </si>
   <si>
     <t xml:space="preserve">給料</t>
   </si>
   <si>
+    <t xml:space="preserve">0017</t>
+  </si>
+  <si>
     <t xml:space="preserve">同事</t>
   </si>
   <si>
     <t xml:space="preserve">同僚</t>
   </si>
   <si>
+    <t xml:space="preserve">0018</t>
+  </si>
+  <si>
     <t xml:space="preserve">老闆</t>
   </si>
   <si>
     <t xml:space="preserve">上司、ボス</t>
   </si>
   <si>
+    <t xml:space="preserve">0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">年終</t>
   </si>
   <si>
     <t xml:space="preserve">年末ボーナス</t>
   </si>
   <si>
-    <t xml:space="preserve">職場</t>
+    <t xml:space="preserve">0020</t>
   </si>
   <si>
     <t xml:space="preserve">尾牙</t>
@@ -281,6 +338,9 @@
 と呼ばれるボーナスが支給されます。</t>
   </si>
   <si>
+    <t xml:space="preserve">0021</t>
+  </si>
+  <si>
     <t xml:space="preserve">請假</t>
   </si>
   <si>
@@ -291,7 +351,13 @@
 多くの場合、賞品や賞金の抽選イベントが行われます。</t>
   </si>
   <si>
+    <t xml:space="preserve">0022</t>
+  </si>
+  <si>
     <t xml:space="preserve">乖乖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よしよし</t>
   </si>
   <si>
     <t xml:space="preserve">「乖乖」とは、機械を守るとされる謎の台湾のお菓子です。
@@ -304,8 +370,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -381,13 +448,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -406,7 +481,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,396 +502,464 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="62.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="62.55"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1"/>
+      <c r="W1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>65</v>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>69</v>
+      <c r="H14" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="H21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="H22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="54.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="54.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
+      <c r="H23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/program/Lab/auto_video/wordList.xlsx
+++ b/program/Lab/auto_video/wordList.xlsx
@@ -20,18 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="125">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">textFilter</t>
+  </si>
+  <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
     <t xml:space="preserve">tag-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Tag-2</t>
+    <t xml:space="preserve">tag-2</t>
   </si>
   <si>
     <t xml:space="preserve">ch</t>
@@ -52,6 +55,12 @@
     <t xml:space="preserve">detail</t>
   </si>
   <si>
+    <t xml:space="preserve">detail-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">img</t>
+  </si>
+  <si>
     <t xml:space="preserve">0001</t>
   </si>
   <si>
@@ -262,6 +271,9 @@
     <t xml:space="preserve">職場</t>
   </si>
   <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
     <t xml:space="preserve">上班</t>
   </si>
   <si>
@@ -269,101 +281,131 @@
   </si>
   <si>
     <t xml:space="preserve">出勤、会社に行く</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下班 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">退勤する、仕事が終わる </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加班 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">残業 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薪水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">給料</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同事</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同僚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">老闆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上司、ボス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年終</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年末ボーナス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">尾牙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">忘年会</t>
-  </si>
-  <si>
-    <t xml:space="preserve">台湾の多くの企業では、旧正月前に「年終獎金（通称：年終）」
-と呼ばれるボーナスが支給されます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">請假</t>
-  </si>
-  <si>
-    <t xml:space="preserve">休みを取る</t>
-  </si>
-  <si>
-    <t xml:space="preserve">台湾の忘年会では、企業が費用を負担し、
-多くの場合、賞品や賞金の抽選イベントが行われます。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乖乖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よしよし</t>
   </si>
   <si>
     <t xml:space="preserve">「乖乖」とは、機械を守るとされる謎の台湾のお菓子です。
 台湾の多くの産業、特にITや製造業など、
 機械を使用する分野では、「乖乖」を置いています。
 台湾の半導体メーカーTSMCも例外ではありません。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「乖乖」とは、
+機械を守るとされる謎の台湾のお菓子です。
+台湾の多くの産業、特にITや製造業など、
+機械を使用する分野では、
+「乖乖」を置いています。
+台湾の半導体メーカーTSMCも
+例外ではありません。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下班</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄒㄧㄚˋ ㄅㄢ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退勤する、仕事が終わる </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加班 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄐㄧㄚ  ㄅㄢ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残業 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薪水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄒㄧㄣ ㄕㄨㄟˇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">給料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄊㄨㄥˊ ㄕˋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同僚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老闆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄌㄠˇ ㄅㄢˇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上司、ボス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年終</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄋ一ㄢˊ  ㄓㄨㄥ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年末ボーナス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尾牙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">忘年会</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台湾の多くの企業では、旧正月前に「年終獎金（通称：年終）」
+と呼ばれるボーナスが支給されます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">請假</t>
+  </si>
+  <si>
+    <t xml:space="preserve">休みを取る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台湾の忘年会では、企業が費用を負担し、
+多くの場合、賞品や賞金の抽選イベントが行われます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乖乖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s0002</t>
   </si>
 </sst>
 </file>
@@ -453,7 +495,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,25 +544,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="62.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="21.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="62.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="35.87"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -532,13 +575,13 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -547,419 +590,597 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="2"/>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B2" s="2" t="str">
+        <f aca="false">C2&amp;D2&amp;E2</f>
+        <v>問候</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f aca="false">C3&amp;D3&amp;E3</f>
+        <v>食物</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="B4" s="2" t="str">
+        <f aca="false">C4&amp;D4&amp;E4</f>
+        <v>購物</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="B5" s="2" t="str">
+        <f aca="false">C5&amp;D5&amp;E5</f>
+        <v>社群</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="B6" s="2" t="str">
+        <f aca="false">C6&amp;D6&amp;E6</f>
+        <v>娛樂</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="B7" s="2" t="str">
+        <f aca="false">C7&amp;D7&amp;E7</f>
+        <v>旅遊</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="B8" s="2" t="str">
+        <f aca="false">C8&amp;D8&amp;E8</f>
+        <v>交通</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="B9" s="2" t="str">
+        <f aca="false">C9&amp;D9&amp;E9</f>
+        <v>教育</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="F9" s="2" t="s">
         <v>56</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="B10" s="2" t="str">
+        <f aca="false">C10&amp;D10&amp;E10</f>
+        <v>體育</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="F10" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="B11" s="2" t="str">
+        <f aca="false">C11&amp;D11&amp;E11</f>
+        <v>醫療</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="F11" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="B12" s="2" t="str">
+        <f aca="false">C12&amp;D12&amp;E12</f>
+        <v>食物</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="I12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f aca="false">C13&amp;D13&amp;E13</f>
+        <v>食物</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="101.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f aca="false">C14&amp;D14&amp;E14</f>
+        <v>職場O</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f aca="false">C15&amp;D15&amp;E15</f>
+        <v>職場O</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>85</v>
+      <c r="F15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>88</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f aca="false">C16&amp;D16&amp;E16</f>
+        <v>職場O</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>91</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f aca="false">C17&amp;D17&amp;E17</f>
+        <v>職場O</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f aca="false">C18&amp;D18&amp;E18</f>
+        <v>職場O</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f aca="false">C19&amp;D19&amp;E19</f>
+        <v>職場O</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f aca="false">C20&amp;D20&amp;E20</f>
+        <v>職場O</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>104</v>
+        <v>113</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f aca="false">C21&amp;D21&amp;E21</f>
+        <v>職場O</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>108</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f aca="false">C22&amp;D22&amp;E22</f>
+        <v>職場O</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="54.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>122</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f aca="false">C23&amp;D23&amp;E23</f>
+        <v>職場O</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
